--- a/Document/ArtList.xlsx
+++ b/Document/ArtList.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity5_projects\PrimitiveBall\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Total" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprits Game" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprints UI" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>站姿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +236,78 @@
   </si>
   <si>
     <t>英雄大招6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In game content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄大招2个（4月20日更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄大招2个（4月27日更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄大招2个（5月4日更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人（3个，每个敌人 5 个姿势，每个姿势是小动画10帧内，飘在天上的动作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个NPC（每个NPC都有一个飞行或行走的动作6帧内）NPC 设定（4月6日更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内：任务条，发射标尺，大招按钮，金币，（高度，距离，速度）HUD，打击次数标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能加点界面，英雄更换界面，装备界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠铺/商店（购买装备，打造装备，强化装备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战报UI，大地图设计（按钮编排，界面内容概念图，HUD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务，首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI调整优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI指导风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个风格灵感主要来源于岩壁绘画  用了岩壁材质和涂料涂抹的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体：HoboStd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,12 +389,75 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7219950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4067175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="G:\QQdownload\1265342645\Image\C2C\XGL71V(2KJTX~ELOI%FNUMF.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2676525" y="5915025"/>
+          <a:ext cx="7219950" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -352,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +790,7 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -655,7 +802,7 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -665,7 +812,7 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
@@ -675,7 +822,7 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
@@ -685,13 +832,13 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -821,7 +968,7 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -834,7 +981,7 @@
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -845,7 +992,7 @@
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
@@ -856,7 +1003,7 @@
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
@@ -867,7 +1014,7 @@
       <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
@@ -887,104 +1034,104 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
@@ -1015,13 +1162,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="76.75" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>42099</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>42113</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>42120</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>42127</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>42139</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="106.375" customWidth="1"/>
+    <col min="3" max="3" width="69.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>42099</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>42106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>42113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>42120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>42127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>42139</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="327" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/ArtList.xlsx
+++ b/Document/ArtList.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity5_projects\PrimitiveBall\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>站姿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏内：任务条，发射标尺，大招按钮，金币，（高度，距离，速度）HUD，打击次数标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能加点界面，英雄更换界面，装备界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +299,26 @@
   </si>
   <si>
     <t>字体：HoboStd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子角色换皮肤3个，改进胖子的飞行姿势，从静态图改成几帧的动画，改进野猪和飞鸟的死亡动作，制作怪物掉血静态图，制作掉肉块（钱）动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照当年的UI指导风格制作游戏内大招CD时的按钮及上方特殊任务的任务栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉块特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大中小3种肉块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以popup方式弹出肉块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,11 +464,176 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="D:\user\Tencent Files\12545037\Image\Group\Image4\LIJ%}}K_~R_@FC0~LXP{IB4.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10896600" y="5229225"/>
+          <a:ext cx="1590675" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3714750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1828800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="D:\user\Tencent Files\12545037\Image\Group\Image4\4NU}WLSDZDO$L59ZYTX33Q0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12592050" y="6210300"/>
+          <a:ext cx="1905000" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1914525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4410075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2895600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="D:\user\Tencent Files\12545037\Image\Group\Image4\(B_9L87I`1RQL[I~%O_FCQD.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11134725" y="8058150"/>
+          <a:ext cx="4057650" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,7 +710,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -878,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,12 +1063,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -900,7 +1076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -908,7 +1084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -919,7 +1095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
         <v>47</v>
@@ -928,7 +1104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -937,7 +1113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
         <v>48</v>
@@ -946,118 +1122,114 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B34" s="2">
         <v>1</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2">
-        <v>3</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
+      <c r="B35" s="2">
+        <v>2</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2">
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1133,26 +1305,47 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E6:E11"/>
-    <mergeCell ref="A39:E52"/>
-    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="A42:E55"/>
+    <mergeCell ref="E34:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,7 +1358,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1183,7 +1376,7 @@
         <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1196,7 +1389,7 @@
         <v>42099</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1253,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1272,7 +1465,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1280,7 +1473,7 @@
         <v>42099</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1288,7 +1481,7 @@
         <v>42106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1296,7 +1489,7 @@
         <v>42113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1304,7 +1497,7 @@
         <v>42120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -1312,7 +1505,7 @@
         <v>42127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1320,7 +1513,7 @@
         <v>42139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1328,22 +1521,23 @@
     </row>
     <row r="9" spans="1:3" ht="327" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/ArtList.xlsx
+++ b/Document/ArtList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>站姿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,30 +254,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英雄大招2个（5月4日更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人（3个，每个敌人 5 个姿势，每个姿势是小动画10帧内，飘在天上的动作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10个NPC（每个NPC都有一个飞行或行走的动作6帧内）NPC 设定（4月6日更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能加点界面，英雄更换界面，装备界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁匠铺/商店（购买装备，打造装备，强化装备）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战报UI，大地图设计（按钮编排，界面内容概念图，HUD）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每日任务，首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,14 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胖子角色换皮肤3个，改进胖子的飞行姿势，从静态图改成几帧的动画，改进野猪和飞鸟的死亡动作，制作怪物掉血静态图，制作掉肉块（钱）动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照当年的UI指导风格制作游戏内大招CD时的按钮及上方特殊任务的任务栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肉块特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +291,29 @@
   </si>
   <si>
     <t>以popup方式弹出肉块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能加点界面，英雄更换界面，装备界面 战报UI，大地图设计（按钮编排，界面内容概念图，HUD）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内UI大小及位置调整，特殊任务界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进野猪和飞鸟的死亡动作
+10个NPC（每个NPC都有一个飞行或行走的动作6帧内）NPC 设定（4月6日更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进胖子的飞行姿势，从静态图改成几帧的动画，做另外两个不同体型的被打的人
+制作掉肉块（钱）动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄大招2个（5月4日更新）
+制作怪物掉血静态图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1127,13 +1122,13 @@
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1357,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1376,7 +1371,7 @@
         <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1388,16 +1383,14 @@
       <c r="A2" s="5">
         <v>42099</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42106</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1405,7 +1398,7 @@
         <v>42113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1429,7 +1422,7 @@
         <v>42139</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1447,7 +1440,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1465,23 +1458,21 @@
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>42099</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1489,7 +1480,7 @@
         <v>42113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1497,7 +1488,7 @@
         <v>42120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -1505,7 +1496,7 @@
         <v>42127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1513,7 +1504,7 @@
         <v>42139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1521,17 +1512,17 @@
     </row>
     <row r="9" spans="1:3" ht="327" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Document/ArtList.xlsx
+++ b/Document/ArtList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="28035" windowHeight="12105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -307,13 +307,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改进胖子的飞行姿势，从静态图改成几帧的动画，做另外两个不同体型的被打的人
-制作掉肉块（钱）动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄大招2个（5月4日更新）
 制作怪物掉血静态图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进胖子的飞行姿势，从静态图改成几帧的动画，做另外两个不同体型的被打的人
+制作掉肉块（钱）动画(大中小各1个)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1352,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1389,16 +1389,14 @@
       <c r="A3" s="5">
         <v>42106</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>42113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1406,7 +1404,7 @@
         <v>42120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1414,7 +1412,7 @@
         <v>42127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1422,7 +1420,12 @@
         <v>42139</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1439,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1471,16 +1474,14 @@
       <c r="A3" s="5">
         <v>42106</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>42113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1488,7 +1489,7 @@
         <v>42120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -1496,7 +1497,7 @@
         <v>42127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1504,11 +1505,14 @@
         <v>42139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="327" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
